--- a/Examples/TestRestAPI/testlist.xlsx
+++ b/Examples/TestRestAPI/testlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\GitHub\ImportExcel\Examples\TestRestAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE1675C5-52D7-4274-AF49-3A4C66229B1B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF261216-5CB1-495E-A37C-7F913806C262}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{2ADE1029-9BC5-4AA5-941E-C648102F16F6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Uri</t>
   </si>
@@ -42,27 +42,18 @@
     <t>ExpectedResult</t>
   </si>
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
     <t>https://mathrestapi.azurewebsites.net/api/MyMathRestAPI</t>
   </si>
   <si>
     <t>Post</t>
   </si>
   <si>
-    <t>{"A":1}</t>
-  </si>
-  <si>
     <t>ContentType</t>
   </si>
   <si>
     <t>application/json</t>
   </si>
   <si>
-    <t>text/html</t>
-  </si>
-  <si>
     <t>QueryString</t>
   </si>
   <si>
@@ -73,6 +64,9 @@
   </si>
   <si>
     <t>Hello from the Math Rest API</t>
+  </si>
+  <si>
+    <t>Hello from the X Math Rest API</t>
   </si>
 </sst>
 </file>
@@ -439,7 +433,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +443,7 @@
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -460,13 +454,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -474,13 +468,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -488,13 +482,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -502,27 +496,27 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/TestRestAPI/testlist.xlsx
+++ b/Examples/TestRestAPI/testlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\GitHub\ImportExcel\Examples\TestRestAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF261216-5CB1-495E-A37C-7F913806C262}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709BD87C-8CA3-4B04-B3D9-B49D6D781862}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{2ADE1029-9BC5-4AA5-941E-C648102F16F6}"/>
+    <workbookView xWindow="26430" yWindow="3270" windowWidth="23100" windowHeight="10320" xr2:uid="{2ADE1029-9BC5-4AA5-941E-C648102F16F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Uri</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Hello from the Math Rest API</t>
-  </si>
-  <si>
-    <t>Hello from the X Math Rest API</t>
   </si>
 </sst>
 </file>
@@ -433,7 +430,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/TestRestAPI/testlist.xlsx
+++ b/Examples/TestRestAPI/testlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\GitHub\ImportExcel\Examples\TestRestAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709BD87C-8CA3-4B04-B3D9-B49D6D781862}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73629452-2C18-4044-AD95-5953E359E0E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26430" yWindow="3270" windowWidth="23100" windowHeight="10320" xr2:uid="{2ADE1029-9BC5-4AA5-941E-C648102F16F6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Uri</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Hello from the Math Rest API</t>
+  </si>
+  <si>
+    <t>Hello from the Math Rest API - intentional error</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +443,7 @@
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -513,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
